--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -634,7 +634,7 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:coding.system}
 </t>
   </si>
   <si>
@@ -665,6 +665,250 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>Observation.category:simpleObservation.id</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_SimpleObservationCategory_CS</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.text</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -710,64 +954,14 @@
     <t>Observation.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
 </t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
   </si>
   <si>
     <t>Observation.code.coding:physicalExamCode</t>
@@ -792,28 +986,52 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
+    <t>Observation.code.coding:physicalExamCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:physicalExamCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:physicalExamCode.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_PhysicalExamCode_CS</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:physicalExamCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:physicalExamCode.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:physicalExamCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:physicalExamCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1557,6 +1775,48 @@
   &lt;code value="detailed-physical-findings"/&gt;
   &lt;display value="Detailed Physical Findings"/&gt;
 &lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding:physicalExamCode.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding:physicalExamCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding:physicalExamCode.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding:physicalExamCode.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding:physicalExamCode.code</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding:physicalExamCode.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding:physicalExamCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.component.code.text</t>
@@ -1921,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1930,8 +2190,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.40625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -3908,15 +4168,15 @@
         <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>93</v>
@@ -3928,23 +4188,19 @@
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="O17" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3968,11 +4224,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -3990,10 +4248,10 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>93</v>
@@ -4002,44 +4260,44 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>83</v>
@@ -4051,15 +4309,17 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>83</v>
@@ -4096,31 +4356,31 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -4132,7 +4392,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4143,14 +4403,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4166,21 +4426,23 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
       </c>
@@ -4216,19 +4478,19 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4240,7 +4502,7 @@
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>83</v>
@@ -4249,10 +4511,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4263,7 +4525,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>229</v>
@@ -4277,7 +4539,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>83</v>
@@ -4286,23 +4548,19 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4338,29 +4596,31 @@
         <v>83</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4369,10 +4629,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4383,23 +4643,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4408,23 +4666,21 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4433,7 +4689,7 @@
         <v>83</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>83</v>
@@ -4460,19 +4716,19 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4484,7 +4740,7 @@
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4493,10 +4749,10 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4507,10 +4763,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4518,7 +4774,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>93</v>
@@ -4533,26 +4789,26 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4594,7 +4850,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4615,10 +4871,10 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4629,10 +4885,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4640,7 +4896,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>93</v>
@@ -4655,20 +4911,18 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4716,7 +4970,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4731,19 +4985,19 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4751,10 +5005,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4765,7 +5019,7 @@
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>83</v>
@@ -4777,18 +5031,18 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
       </c>
@@ -4836,13 +5090,13 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>83</v>
@@ -4857,13 +5111,13 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4871,14 +5125,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4897,19 +5151,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4958,7 +5210,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4973,19 +5225,19 @@
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -4993,14 +5245,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5019,19 +5271,19 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5080,7 +5332,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5095,19 +5347,19 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5115,10 +5367,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5141,18 +5393,20 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5200,7 +5454,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5221,13 +5475,13 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5235,21 +5489,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>83</v>
+        <v>286</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>83</v>
@@ -5261,19 +5515,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5298,13 +5552,11 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5322,13 +5574,13 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>83</v>
@@ -5337,30 +5589,30 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5380,23 +5632,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5432,17 +5680,19 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5451,49 +5701,47 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>319</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>83</v>
@@ -5502,23 +5750,21 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5542,67 +5788,69 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>319</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5613,7 +5861,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>83</v>
@@ -5622,22 +5870,22 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>325</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>326</v>
+        <v>222</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5662,40 +5910,38 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>330</v>
+        <v>83</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
@@ -5707,10 +5953,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5721,21 +5967,23 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5744,22 +5992,22 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5769,7 +6017,7 @@
         <v>83</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>83</v>
@@ -5784,13 +6032,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5808,7 +6056,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5826,27 +6074,27 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>345</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5857,7 +6105,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5869,20 +6117,16 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>347</v>
+        <v>207</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>348</v>
+        <v>208</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -5930,19 +6174,19 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -5951,10 +6195,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>352</v>
+        <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5965,21 +6209,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -5991,16 +6235,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>355</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6026,67 +6270,69 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>354</v>
+        <v>217</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6094,7 +6340,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>93</v>
@@ -6106,29 +6352,29 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>364</v>
+        <v>235</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>366</v>
+        <v>237</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>83</v>
@@ -6146,11 +6392,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6168,7 +6416,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>363</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6189,10 +6437,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>369</v>
+        <v>241</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6203,10 +6451,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6226,19 +6474,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>371</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6288,7 +6536,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>370</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6306,27 +6554,27 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6346,21 +6594,21 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6408,7 +6656,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>379</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6426,27 +6674,27 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>387</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6457,7 +6705,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>83</v>
@@ -6466,22 +6714,20 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>393</v>
+        <v>262</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6530,19 +6776,19 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>263</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>394</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6551,10 +6797,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>395</v>
+        <v>264</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>396</v>
+        <v>265</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6565,10 +6811,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6588,19 +6834,23 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6648,7 +6898,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6660,7 +6910,7 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
@@ -6669,10 +6919,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6683,21 +6933,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>83</v>
@@ -6706,21 +6956,23 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6768,19 +7020,19 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -6789,10 +7041,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6803,45 +7055,45 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>399</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>139</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>401</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6890,34 +7142,34 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
@@ -6925,10 +7177,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6939,7 +7191,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -6948,18 +7200,20 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7008,16 +7262,16 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>408</v>
+        <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>105</v>
@@ -7029,13 +7283,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>409</v>
+        <v>294</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7043,14 +7297,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7066,19 +7320,23 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7126,7 +7384,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7135,25 +7393,25 @@
         <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>408</v>
+        <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7161,14 +7419,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7184,22 +7442,22 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7224,13 +7482,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>421</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7248,7 +7506,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7263,19 +7521,19 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>422</v>
+        <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7283,10 +7541,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7297,7 +7555,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7306,23 +7564,21 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7346,13 +7602,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7370,13 +7626,13 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
@@ -7388,16 +7644,16 @@
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>422</v>
+        <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7405,10 +7661,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7419,7 +7675,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7428,20 +7684,22 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7490,13 +7748,13 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
@@ -7505,19 +7763,19 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7525,10 +7783,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7548,19 +7806,23 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7596,19 +7858,17 @@
         <v>83</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7617,7 +7877,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7626,29 +7886,31 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>83</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7657,7 +7919,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7669,18 +7931,20 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>443</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7704,13 +7968,11 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7728,16 +7990,16 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7746,27 +8008,27 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>83</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7777,7 +8039,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
@@ -7786,21 +8048,23 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>450</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7824,13 +8088,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7848,16 +8112,16 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -7869,10 +8133,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>447</v>
+        <v>136</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7883,14 +8147,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>407</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7906,22 +8170,22 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7946,13 +8210,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -7970,7 +8234,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7988,27 +8252,27 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>83</v>
+        <v>414</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>83</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8019,7 +8283,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8031,16 +8295,20 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8088,19 +8356,19 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>222</v>
+        <v>418</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8109,10 +8377,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>223</v>
+        <v>425</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8123,21 +8391,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8149,16 +8417,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>140</v>
+        <v>427</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>225</v>
+        <v>428</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>142</v>
+        <v>429</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8184,13 +8452,11 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8208,80 +8474,80 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>228</v>
+        <v>426</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>223</v>
+        <v>433</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>83</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>142</v>
+        <v>437</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>148</v>
+        <v>438</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8306,13 +8572,11 @@
         <v>83</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>83</v>
+        <v>439</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8330,19 +8594,19 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
@@ -8351,10 +8615,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>136</v>
+        <v>441</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8365,10 +8629,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8376,7 +8640,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>93</v>
@@ -8388,23 +8652,21 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8428,11 +8690,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8450,10 +8714,10 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>93</v>
@@ -8468,27 +8732,27 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>214</v>
+        <v>448</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8511,15 +8775,17 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>219</v>
+        <v>452</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>220</v>
+        <v>453</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8568,7 +8834,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>222</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8580,37 +8846,37 @@
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>83</v>
+        <v>457</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>223</v>
+        <v>458</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>83</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8629,18 +8895,20 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>139</v>
+        <v>461</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8676,19 +8944,19 @@
         <v>83</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>228</v>
+        <v>460</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8700,7 +8968,7 @@
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>144</v>
+        <v>466</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8709,10 +8977,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>223</v>
+        <v>468</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8723,10 +8991,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8737,7 +9005,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
@@ -8746,23 +9014,19 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8798,29 +9062,31 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
@@ -8829,10 +9095,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8843,23 +9109,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -8868,23 +9132,21 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -8893,7 +9155,7 @@
         <v>83</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>474</v>
+        <v>83</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>83</v>
@@ -8932,7 +9194,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8944,7 +9206,7 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -8953,10 +9215,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -8967,45 +9229,45 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>245</v>
+        <v>473</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9054,19 +9316,19 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
@@ -9075,10 +9337,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9112,23 +9374,19 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N60" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="O60" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9185,7 +9443,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9194,27 +9452,27 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>480</v>
+        <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>317</v>
+        <v>481</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>318</v>
+        <v>482</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>319</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9237,20 +9495,16 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>191</v>
+        <v>477</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9274,13 +9528,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>330</v>
+        <v>83</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9298,7 +9552,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9307,7 +9561,7 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>332</v>
+        <v>480</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9319,10 +9573,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>333</v>
+        <v>486</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9333,21 +9587,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9362,16 +9616,16 @@
         <v>191</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>336</v>
+        <v>488</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9396,13 +9650,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>329</v>
+        <v>117</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>340</v>
+        <v>492</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>341</v>
+        <v>493</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9420,13 +9674,13 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
@@ -9438,27 +9692,27 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>342</v>
+        <v>494</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>345</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9481,19 +9735,19 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9518,13 +9772,13 @@
         <v>83</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>83</v>
+        <v>503</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -9542,7 +9796,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9560,18 +9814,3032 @@
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>395</v>
+        <v>495</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP63" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y72" s="2"/>
+      <c r="Z72" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AC75" s="2"/>
+      <c r="AD75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP88" t="s" s="2">
         <v>83</v>
       </c>
     </row>
